--- a/Assets/DevelopAssets/Excels/RolesConfig.xlsx
+++ b/Assets/DevelopAssets/Excels/RolesConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26083" windowHeight="10827"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,9 @@
     <t>skillActive</t>
   </si>
   <si>
+    <t>hp</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>主动技能</t>
+  </si>
+  <si>
+    <t>血量</t>
   </si>
 </sst>
 </file>
@@ -992,23 +998,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="19.9449541284404" customWidth="1"/>
-    <col min="3" max="3" width="25.7981651376147" customWidth="1"/>
-    <col min="4" max="4" width="26.4220183486239" customWidth="1"/>
-    <col min="5" max="5" width="14.5779816513761" customWidth="1"/>
-    <col min="6" max="6" width="16.5688073394495" customWidth="1"/>
-    <col min="7" max="7" width="16.1192660550459" customWidth="1"/>
+    <col min="2" max="2" width="19.9444444444444" customWidth="1"/>
+    <col min="3" max="3" width="25.7962962962963" customWidth="1"/>
+    <col min="4" max="4" width="26.4259259259259" customWidth="1"/>
+    <col min="5" max="5" width="14.5740740740741" customWidth="1"/>
+    <col min="6" max="6" width="16.5648148148148" customWidth="1"/>
+    <col min="7" max="7" width="16.1203703703704" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:5">
+    <row r="1" ht="21" customHeight="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1024,42 +1030,51 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="19" customHeight="1" spans="1:5">
+    <row r="2" ht="19" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:5">
+    <row r="3" ht="18" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1069,8 +1084,11 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1080,8 +1098,11 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1091,8 +1112,11 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1102,8 +1126,11 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1112,6 +1139,9 @@
       </c>
       <c r="C8">
         <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1130,7 +1160,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1147,7 +1177,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/DevelopAssets/Excels/RolesConfig.xlsx
+++ b/Assets/DevelopAssets/Excels/RolesConfig.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -49,6 +49,9 @@
     <t>hp</t>
   </si>
   <si>
+    <t>flyDistance</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>血量</t>
+  </si>
+  <si>
+    <t>飞行物距离</t>
   </si>
 </sst>
 </file>
@@ -998,13 +1004,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.9444444444444" customWidth="1"/>
     <col min="3" max="3" width="25.7962962962963" customWidth="1"/>
@@ -1014,7 +1020,7 @@
     <col min="7" max="7" width="16.1203703703704" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:6">
+    <row r="1" ht="21" customHeight="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1033,48 +1039,57 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="19" customHeight="1" spans="1:6">
+    <row r="2" ht="19" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:6">
+    <row r="3" ht="18" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1087,8 +1102,11 @@
       <c r="F4">
         <v>1000</v>
       </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1101,8 +1119,11 @@
       <c r="F5">
         <v>1000</v>
       </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1115,8 +1136,11 @@
       <c r="F6">
         <v>1000</v>
       </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1129,8 +1153,11 @@
       <c r="F7">
         <v>1000</v>
       </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1142,6 +1169,9 @@
       </c>
       <c r="F8">
         <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DevelopAssets/Excels/RolesConfig.xlsx
+++ b/Assets/DevelopAssets/Excels/RolesConfig.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -52,9 +52,15 @@
     <t>flyDistance</t>
   </si>
   <si>
+    <t>ballsId</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>角色id</t>
   </si>
   <si>
@@ -74,6 +80,12 @@
   </si>
   <si>
     <t>飞行物距离</t>
+  </si>
+  <si>
+    <t>使用球id</t>
+  </si>
+  <si>
+    <t>1-2-3</t>
   </si>
 </sst>
 </file>
@@ -689,8 +701,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1004,174 +1019,201 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="19.9444444444444" customWidth="1"/>
-    <col min="3" max="3" width="25.7962962962963" customWidth="1"/>
-    <col min="4" max="4" width="26.4259259259259" customWidth="1"/>
-    <col min="5" max="5" width="14.5740740740741" customWidth="1"/>
-    <col min="6" max="6" width="16.5648148148148" customWidth="1"/>
-    <col min="7" max="7" width="16.1203703703704" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19.9444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7962962962963" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.4259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5740740740741" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5648148148148" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1203703703704" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.66666666666667" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="19" customHeight="1" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
+    <row r="2" ht="19" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="3" ht="18" customHeight="1" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>1000</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>1000</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>2</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>1000</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>2</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>1000</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>2</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>1000</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
